--- a/TC_input_004.xlsx
+++ b/TC_input_004.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_testing_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5413AACE-BEF2-40DD-8F4F-BC71F40F0F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816DF5D-63B9-4028-8849-9C816E6BA3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F98A2A3A-4DCD-4AEE-94D1-65B914BDAD98}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F98A2A3A-4DCD-4AEE-94D1-65B914BDAD98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,13 +45,13 @@
     <t>Expected values</t>
   </si>
   <si>
-    <t>TC_cura_Home_004</t>
-  </si>
-  <si>
-    <t>home button</t>
-  </si>
-  <si>
     <t>landed on home page</t>
+  </si>
+  <si>
+    <t>N/A (No specific input data required)</t>
+  </si>
+  <si>
+    <t>TC_cura_validatehomepage_004</t>
   </si>
 </sst>
 </file>
@@ -414,14 +414,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBA669B-0165-437A-8727-F9521778E06B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,13 +438,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
